--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1047871.467190671</v>
+        <v>1060665.856210147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7328983.464450657</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15558518.34613863</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5596887.964757478</v>
+        <v>4950943.517950578</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>139.4424217146515</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>157.7370149001022</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>158.4122081173363</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>144.2747735436991</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>141.9488777103964</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>147.5082608816643</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>160.7443837553977</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3716778328215</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>102.0588773162088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>95.49060963329742</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>81.60846331385974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>75.68083537153548</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>63.12969510488286</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>80.1955752083696</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>83.89236901220247</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.5032577174348</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>103.4674053362695</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>102.1947797826792</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>104.4588715515763</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>94.03817820864488</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>107.3777497298423</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>111.1347312708163</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304.9200525868771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>287.4591026944041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>276.8692525440795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>304.1165809956584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>329.062256665108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>336.9987676369053</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>256.6409489045078</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>113.7644051391025</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>41.26400908438475</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>120.0362854925813</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>143.1362940284086</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>173.492649367103</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>249.9384693935315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>271.4271796408096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>291.9173116018656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>308.4241495794502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.7193945732639</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>94.8947099117123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>69.63127648803531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>79.8312913787975</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>67.25542331678044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>59.26745823600117</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>31.88868055009272</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>2.552938830700672</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.060308211219965</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>88.99783458286369</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>121.2938080712579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>148.1103384089368</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>154.9867980728218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>173.8811940843162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>127.959196126874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>127.8689067007009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0181911053339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>89.43303202202439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>70.80168394160891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>68.62017356996573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>67.6072589463278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>89.95731204932251</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>82.45846605431719</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>71.02434773048648</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>89.59307740868191</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3709310352289</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>149.1923206308561</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>208.4932469217493</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>174.3238542472246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7092092599876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>147.8958663124337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.7708642754914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.9200525868771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>287.4591026944041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>276.8692525440795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>304.1165809956584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>329.062256665108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>336.9987676369053</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>256.6409489045078</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>113.7644051391025</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>41.26400908438475</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>120.0362854925813</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>143.1362940284086</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>173.492649367103</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>249.9384693935315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>271.4271796408096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>291.9173116018656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>308.4241495794502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.7193945732639</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>94.8947099117123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>69.63127648803531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>79.8312913787975</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>67.25542331678044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>59.26745823600117</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>31.88868055009272</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>2.552938830700672</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.060308211219965</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>88.99783458286369</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>121.2938080712579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>148.1103384089368</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>154.9867980728218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>173.8811940843162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>127.959196126874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>127.8689067007009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.0181911053339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>89.43303202202439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>70.80168394160891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.62017356996573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>67.6072589463278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>89.95731204932251</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>82.45846605431719</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>71.02434773048648</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>89.59307740868191</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>142.3709310352289</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>149.1923206308561</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>208.4932469217493</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>174.3238542472246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>208.7092092599876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>147.8958663124337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.7708642754914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.9200525868771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>287.4591026944041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>276.8692525440795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>304.1165809956584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>329.062256665108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>336.9987676369053</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>256.6409489045078</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>113.7644051391025</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.26400908438475</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>120.0362854925813</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>143.1362940284086</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>173.492649367103</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>249.9384693935315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>271.4271796408096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>291.9173116018656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>308.4241495794502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88.7193945732639</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>94.8947099117123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>69.63127648803531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>79.8312913787975</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>67.25542331678044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>59.26745823600117</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>31.88868055009272</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>2.552938830700672</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.060308211219965</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>88.99783458286369</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>121.2938080712579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>148.1103384089368</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>154.9867980728218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>173.8811940843162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>127.959196126874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>127.8689067007009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.0181911053339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>89.43303202202439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80168394160891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>68.62017356996573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>67.6072589463278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>89.95731204932251</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>82.45846605431719</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>71.02434773048648</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>89.59307740868191</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>142.3709310352289</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>149.1923206308561</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>208.4932469217493</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>174.3238542472246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>208.7092092599876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>147.8958663124337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.7708642754914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>304.9200525868771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>287.4591026944041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>276.8692525440795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>304.1165809956584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>329.062256665108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>336.9987676369053</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>256.6409489045078</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>113.7644051391025</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.26400908438475</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>120.0362854925813</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>143.1362940284086</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>173.492649367103</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>249.9384693935315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>271.4271796408096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>291.9173116018656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>308.4241495794502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88.7193945732639</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>94.8947099117123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>69.63127648803531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>79.8312913787975</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>67.25542331678044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>59.26745823600117</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>31.88868055009272</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>2.552938830700672</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.060308211219965</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>88.99783458286369</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>121.2938080712579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>148.1103384089368</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>154.9867980728218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>173.8811940843162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>127.959196126874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>127.8689067007009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.0181911053339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>89.43303202202439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80168394160891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>68.62017356996573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>67.6072589463278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>89.95731204932251</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>82.45846605431719</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>71.02434773048648</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>89.59307740868191</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>142.3709310352289</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>149.1923206308561</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>208.4932469217493</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>174.3238542472246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>208.7092092599876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>147.8958663124337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.7708642754914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.9200525868771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>287.4591026944041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>276.8692525440795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>304.1165809956584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>329.062256665108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>336.9987676369053</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>256.6409489045078</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>113.7644051391025</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.26400908438475</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>120.0362854925813</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>143.1362940284086</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>173.492649367103</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>249.9384693935315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>271.4271796408096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>291.9173116018656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.4241495794502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.7193945732639</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>94.8947099117123</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>69.63127648803531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>79.8312913787975</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>67.25542331678044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>59.26745823600117</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>31.88868055009272</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>2.552938830700672</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.060308211219965</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>88.99783458286369</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>121.2938080712579</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>148.1103384089368</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>154.9867980728218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>173.8811940843162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>127.959196126874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.8689067007009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.0181911053339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>89.43303202202439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>70.80168394160891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>68.62017356996573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>67.6072589463278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>89.95731204932251</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>82.45846605431719</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>71.02434773048648</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>89.59307740868191</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>142.3709310352289</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>149.1923206308561</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>208.4932469217493</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>174.3238542472246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>208.7092092599876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>147.8958663124337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.7708642754914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8125567135087</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>334.4547379811112</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>191.5781942157059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>119.0777981609882</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>197.8500745691848</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>220.950083105012</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3064384437064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0812473126046</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.7024696266962</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>80.36672790730411</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.8740972878234</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>166.8116236594671</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>199.1075971478614</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9241274855402</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.771101125926</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>160.2722551309206</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>148.8381368070899</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>77.81378907660344</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.75023961660648</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>167.4068664852853</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>220.1847201118324</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.0061097074595</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3070359983527</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>462198.0035419418</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>462198.0035419418</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>462198.0035419418</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>462198.0035419418</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462198.0035419418</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>286194.7829689385</v>
+        <v>277733.0094881607</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>655421.0709736304</v>
+      </c>
+      <c r="C2" t="n">
         <v>655421.0709736305</v>
-      </c>
-      <c r="C2" t="n">
-        <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
         <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="F2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="G2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="H2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="I2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="J2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="K2" t="n">
-        <v>328750.4019439172</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="L2" t="n">
-        <v>328750.4019439173</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="M2" t="n">
-        <v>328750.4019439173</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="N2" t="n">
-        <v>328750.4019439173</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="O2" t="n">
-        <v>328750.4019439173</v>
+        <v>182912.8770397818</v>
       </c>
       <c r="P2" t="n">
-        <v>180537.1635666511</v>
+        <v>182912.8770397818</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97960.91573404324</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>62251.03126128275</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="G4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="H4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="I4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="J4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="K4" t="n">
-        <v>177550.9470198926</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="L4" t="n">
-        <v>177550.9470198926</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="M4" t="n">
-        <v>177550.9470198926</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="N4" t="n">
-        <v>177550.9470198926</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="O4" t="n">
-        <v>177550.9470198926</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="P4" t="n">
-        <v>71806.90123354012</v>
+        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>9199.855375900288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>9199.855375900288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>9199.855375900288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>9199.855375900288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>9199.855375900288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>2658.127942019314</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>174768.8507012375</v>
+      </c>
+      <c r="C6" t="n">
         <v>174768.8507012377</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>174768.8507012379</v>
       </c>
-      <c r="D6" t="n">
-        <v>174768.850701238</v>
-      </c>
       <c r="E6" t="n">
-        <v>8111.218657048466</v>
+        <v>-14322.70306864637</v>
       </c>
       <c r="F6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="G6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="H6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="I6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="J6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="K6" t="n">
-        <v>79748.56828684156</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="L6" t="n">
-        <v>141999.5995481244</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="M6" t="n">
-        <v>141999.5995481244</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="N6" t="n">
-        <v>141999.5995481244</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="O6" t="n">
-        <v>141999.5995481244</v>
+        <v>118777.2969313537</v>
       </c>
       <c r="P6" t="n">
-        <v>106072.1343910917</v>
+        <v>118777.2969313537</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.9324744045557</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29669,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29712,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.75023961660648</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,31 +29906,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29949,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.75023961660648</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,31 +30143,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.75023961660648</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.75023961660648</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.75023961660648</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.81378907660344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4901808016263541</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>5.0200641346559</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>18.89769535470003</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>41.60348281203481</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>62.35283614487839</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>77.35420685265095</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>86.07145968357361</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>87.4641858861945</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>82.58995054002243</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>70.48861199987181</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.93401204162799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>30.79131978016149</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>11.16999501706056</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.145766459119366</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03921446413010832</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2622698506060254</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>2.532974609800299</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>9.029904944110964</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>24.77874935045787</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35082934106157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>56.94591646601443</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>66.45319855048284</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>68.21201697845045</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>62.40066923607483</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>50.08203840212779</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.47851636858669</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>16.28373686481973</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>4.871547444370688</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.057131546960251</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01725459543460694</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2198782325328053</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>1.954917376518943</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>6.612338120168365</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>15.54539104006933</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>25.54585283426592</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>32.68989649855908</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>34.46691239602874</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>33.64736625658831</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>31.07878872200053</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>26.59327277833128</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.41180363508791</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>9.886524891884134</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>3.831877925139887</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9394797208219861</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01199335813815303</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1060665.856210147</v>
+        <v>977274.0420792104</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17785260.94054101</v>
+        <v>16875224.36884905</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4950943.517950578</v>
+        <v>5344773.040870584</v>
       </c>
     </row>
     <row r="11">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>82.78933896946536</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>78.91048553587152</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>78.9104855358715</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>115.9135453040444</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>198.7853091397774</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>82.10102187354958</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>170.5734519674083</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>150.7609240527453</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>184.8765606401013</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>118.7489056237013</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>222.9971470234344</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>142.4841515224366</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>207.0857338616452</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969135</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>129.575088147188</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>207.0857338616452</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>121.2718469541506</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>225.3747630965444</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>154.0272493760135</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>218.5992597051976</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>180.016988407914</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952586</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>25.47815180947028</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>122.0131831117985</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.82613404874699</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>93.79801345244422</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8538961940002</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>333.1452885836169</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>61.36036003405762</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>125.1617115811338</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>73.76175546322096</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>333.1452885836169</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>70.56577993720886</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>64.92291371530408</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>309.003084505386</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>82.82433129054108</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>63.7362132053125</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>71.33845523528933</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>53.31902250804625</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952586</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>153.8901016135538</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>106.1012230238427</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952586</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>174.8156975334897</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>145.6741680431787</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>254.0215013120404</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>174.8156975334897</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>153.0841665253886</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>277733.0094881607</v>
+        <v>281394.2161018961</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>277733.0094881607</v>
+        <v>281394.2161018961</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>277733.0094881607</v>
+        <v>281394.2161018961</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>277733.0094881607</v>
+        <v>281394.2161018961</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355179</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.207335518</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355178</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.207335518</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355178</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>277733.0094881607</v>
+        <v>349438.2073355179</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>655421.0709736306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>655421.0709736308</v>
+      </c>
+      <c r="D2" t="n">
         <v>655421.0709736304</v>
       </c>
-      <c r="C2" t="n">
-        <v>655421.0709736305</v>
-      </c>
-      <c r="D2" t="n">
-        <v>655421.0709736308</v>
-      </c>
       <c r="E2" t="n">
-        <v>182912.8770397818</v>
+        <v>181884.9627497189</v>
       </c>
       <c r="F2" t="n">
-        <v>182912.8770397818</v>
+        <v>181884.9627497189</v>
       </c>
       <c r="G2" t="n">
-        <v>182912.8770397818</v>
+        <v>181884.9627497189</v>
       </c>
       <c r="H2" t="n">
-        <v>182912.8770397818</v>
+        <v>181884.9627497189</v>
       </c>
       <c r="I2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524923</v>
       </c>
       <c r="J2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524924</v>
       </c>
       <c r="K2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524924</v>
       </c>
       <c r="L2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524923</v>
       </c>
       <c r="M2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524923</v>
       </c>
       <c r="N2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524924</v>
       </c>
       <c r="O2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524923</v>
       </c>
       <c r="P2" t="n">
-        <v>182912.8770397818</v>
+        <v>219828.2970524924</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>117896.1602839667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22259.9417282444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>60523.96800341976</v>
+        <v>65405.82283660476</v>
       </c>
       <c r="F4" t="n">
-        <v>60523.96800341977</v>
+        <v>65405.82283660476</v>
       </c>
       <c r="G4" t="n">
-        <v>60523.96800341976</v>
+        <v>65405.82283660476</v>
       </c>
       <c r="H4" t="n">
-        <v>60523.96800341977</v>
+        <v>65405.82283660476</v>
       </c>
       <c r="I4" t="n">
-        <v>60523.96800341976</v>
+        <v>88464.6928438381</v>
       </c>
       <c r="J4" t="n">
-        <v>60523.96800341977</v>
+        <v>88464.6928438381</v>
       </c>
       <c r="K4" t="n">
-        <v>60523.96800341976</v>
+        <v>88464.6928438381</v>
       </c>
       <c r="L4" t="n">
-        <v>60523.96800341977</v>
+        <v>88464.6928438381</v>
       </c>
       <c r="M4" t="n">
-        <v>60523.96800341976</v>
+        <v>88464.69284383809</v>
       </c>
       <c r="N4" t="n">
-        <v>60523.96800341977</v>
+        <v>88464.69284383809</v>
       </c>
       <c r="O4" t="n">
-        <v>60523.96800341976</v>
+        <v>88464.69284383809</v>
       </c>
       <c r="P4" t="n">
-        <v>60523.96800341977</v>
+        <v>88464.69284383809</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174768.8507012375</v>
+        <v>174724.7149225567</v>
       </c>
       <c r="C6" t="n">
-        <v>174768.8507012377</v>
+        <v>174724.7149225568</v>
       </c>
       <c r="D6" t="n">
-        <v>174768.8507012379</v>
+        <v>174724.7149225564</v>
       </c>
       <c r="E6" t="n">
-        <v>-14322.70306864637</v>
+        <v>-19458.22188777114</v>
       </c>
       <c r="F6" t="n">
-        <v>118777.2969313537</v>
+        <v>98437.93839619556</v>
       </c>
       <c r="G6" t="n">
-        <v>118777.2969313537</v>
+        <v>98437.93839619556</v>
       </c>
       <c r="H6" t="n">
-        <v>118777.2969313537</v>
+        <v>98437.93839619556</v>
       </c>
       <c r="I6" t="n">
-        <v>118777.2969313537</v>
+        <v>87158.69193700587</v>
       </c>
       <c r="J6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652503</v>
       </c>
       <c r="K6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652503</v>
       </c>
       <c r="L6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652503</v>
       </c>
       <c r="M6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652502</v>
       </c>
       <c r="N6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652503</v>
       </c>
       <c r="O6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652503</v>
       </c>
       <c r="P6" t="n">
-        <v>118777.2969313537</v>
+        <v>109418.6336652504</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,16 +36369,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>26.61118513087401</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.71549137555021</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>42.20609012309107</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>29.28361685808048</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>42.20609012309107</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.28361685808048</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>72.19945110686713</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555021</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
